--- a/SubRES_TMPL/SubRES_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_006\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9777DD9B-8344-420B-817C-8368997EC5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77582279-FBE0-4DDC-84B9-EC47BBE4AC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVA" sheetId="18" r:id="rId1"/>
@@ -18,24 +18,16 @@
     <sheet name="FILL Table" sheetId="19" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,13 +57,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0">
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="1" shapeId="0">
+    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="1" shapeId="0">
+    <comment ref="H13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N13" authorId="1" shapeId="0">
+    <comment ref="M13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -221,23 +213,20 @@
     <t>Tech_Comm_Info</t>
   </si>
   <si>
-    <t>REG2</t>
-  </si>
-  <si>
-    <t>REG1</t>
-  </si>
-  <si>
     <t>~TFM_AVA</t>
+  </si>
+  <si>
+    <t>ETH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -270,12 +259,6 @@
       <sz val="12"/>
       <color indexed="53"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -365,14 +348,14 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -392,25 +375,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 4 2" xfId="5"/>
-    <cellStyle name="Normal 8" xfId="6"/>
-    <cellStyle name="Normal 9 2" xfId="7"/>
-    <cellStyle name="Normale_B2020" xfId="8"/>
-    <cellStyle name="Percent 2" xfId="9"/>
-    <cellStyle name="Percent 3" xfId="10"/>
-    <cellStyle name="Percent 4" xfId="11"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="12"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 8" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 9 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normale_B2020" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Percent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Percent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Percent 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,9 +409,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,9 +449,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,26 +484,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,26 +519,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -745,11 +694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -757,23 +706,23 @@
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -792,31 +741,28 @@
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>21</v>
+      <c r="H4" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -827,12 +773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B3:P14"/>
+  <dimension ref="B3:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -842,40 +788,40 @@
     <col min="3" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -894,63 +840,59 @@
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>21</v>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="J7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="2:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
@@ -969,31 +911,28 @@
       <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>21</v>
+      <c r="H14" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1007,10 +946,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1024,17 +965,17 @@
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
@@ -1065,13 +1006,10 @@
       <c r="K3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>21</v>
+      <c r="L3" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
